--- a/Examples/pcb/pcb_model50.xlsx
+++ b/Examples/pcb/pcb_model50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA670D9-E66C-470A-9E39-13E8BC026D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E737BA6C-65A0-4BCC-82FB-057B72B1BE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="390" windowWidth="23670" windowHeight="12525" activeTab="6" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
+    <workbookView xWindow="-1005" yWindow="1170" windowWidth="23670" windowHeight="12525" activeTab="6" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="2" r:id="rId1"/>
@@ -674,9 +674,6 @@
     <t>RE</t>
   </si>
   <si>
-    <t>BC50</t>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
@@ -705,6 +702,9 @@
   </si>
   <si>
     <t>DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>ELC50</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -805,6 +805,10 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14225,13 +14229,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14245,12 +14249,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1">
         <v>11</v>
@@ -14259,12 +14263,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1">
         <v>11</v>
@@ -14273,12 +14277,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="1">
         <v>11</v>
@@ -14287,12 +14291,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
@@ -14301,12 +14305,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -14315,7 +14319,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -14328,7 +14332,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14345,7 +14349,7 @@
         <v>183</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>182</v>
@@ -14355,13 +14359,13 @@
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="17">
         <v>80173.625871283366</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="17">
         <v>1541591.1901311381</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="17">
         <v>11688622.783103174</v>
       </c>
     </row>
@@ -14369,13 +14373,13 @@
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="17">
         <v>877.4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="17">
         <v>877.4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="17">
         <v>877.4</v>
       </c>
     </row>
@@ -14383,209 +14387,209 @@
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6">
-        <v>1551.5980110100579</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1551.5980110100579</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1551.5980110100579</v>
+      <c r="B4" s="17">
+        <v>3075.855087905401</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3075.855087905401</v>
+      </c>
+      <c r="D4" s="17">
+        <v>3075.855087905401</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6">
-        <v>1976.7766512828066</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1976.7766512828066</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1976.7766512828066</v>
+      <c r="B5" s="17">
+        <v>3578.9718523809843</v>
+      </c>
+      <c r="C5" s="17">
+        <v>3578.9718523809843</v>
+      </c>
+      <c r="D5" s="17">
+        <v>3578.9718523809843</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="6">
-        <v>1517.7314774427114</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1517.7314774427114</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1517.7314774427114</v>
+      <c r="B6" s="17">
+        <v>1306.2443043564317</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1306.2443043564317</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1306.2443043564317</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="6">
-        <v>4455.1553999217176</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4455.1553999217176</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4455.1553999217176</v>
+      <c r="B7" s="17">
+        <v>3253.6107748918034</v>
+      </c>
+      <c r="C7" s="17">
+        <v>3253.6107748918034</v>
+      </c>
+      <c r="D7" s="17">
+        <v>3253.6107748918034</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="6">
-        <v>407.11280819108799</v>
-      </c>
-      <c r="C8" s="6">
-        <v>407.11280819108799</v>
-      </c>
-      <c r="D8" s="6">
-        <v>407.11280819108799</v>
+      <c r="B8" s="17">
+        <v>506.94719430975795</v>
+      </c>
+      <c r="C8" s="17">
+        <v>506.94719430975795</v>
+      </c>
+      <c r="D8" s="17">
+        <v>506.94719430975795</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6">
-        <v>77.961918282329151</v>
-      </c>
-      <c r="C9" s="6">
-        <v>77.961918282329151</v>
-      </c>
-      <c r="D9" s="6">
-        <v>77.961918282329151</v>
+      <c r="B9" s="17">
+        <v>50.817784571947463</v>
+      </c>
+      <c r="C9" s="17">
+        <v>50.817784571947463</v>
+      </c>
+      <c r="D9" s="17">
+        <v>50.817784571947463</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6">
-        <v>23.004962074669844</v>
-      </c>
-      <c r="C10" s="6">
-        <v>23.004962074669844</v>
-      </c>
-      <c r="D10" s="6">
-        <v>23.004962074669844</v>
+      <c r="B10" s="17">
+        <v>22.85801131202361</v>
+      </c>
+      <c r="C10" s="17">
+        <v>22.85801131202361</v>
+      </c>
+      <c r="D10" s="17">
+        <v>22.85801131202361</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6">
-        <v>1426.1038739068899</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1426.1038739068899</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1426.1038739068899</v>
+      <c r="B11" s="17">
+        <v>1413.3138069700799</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1413.3138069700799</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1413.3138069700799</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="6">
-        <v>160.01799703677096</v>
-      </c>
-      <c r="C12" s="6">
-        <v>160.01799703677096</v>
-      </c>
-      <c r="D12" s="6">
-        <v>160.01799703677096</v>
+      <c r="B12" s="17">
+        <v>159.26099896804683</v>
+      </c>
+      <c r="C12" s="17">
+        <v>159.26099896804683</v>
+      </c>
+      <c r="D12" s="17">
+        <v>159.26099896804683</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="6">
-        <v>18.860842352260732</v>
-      </c>
-      <c r="C13" s="6">
-        <v>18.860842352260732</v>
-      </c>
-      <c r="D13" s="6">
-        <v>18.860842352260732</v>
+      <c r="B13" s="17">
+        <v>43.4900985749494</v>
+      </c>
+      <c r="C13" s="17">
+        <v>43.4900985749494</v>
+      </c>
+      <c r="D13" s="17">
+        <v>43.4900985749494</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="6">
-        <v>276.90367962963307</v>
-      </c>
-      <c r="C14" s="6">
-        <v>276.90367962963307</v>
-      </c>
-      <c r="D14" s="6">
-        <v>276.90367962963307</v>
+      <c r="B14" s="17">
+        <v>307.77912273090294</v>
+      </c>
+      <c r="C14" s="17">
+        <v>307.77912273090294</v>
+      </c>
+      <c r="D14" s="17">
+        <v>307.77912273090294</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="6">
-        <v>103.30918253911165</v>
-      </c>
-      <c r="C15" s="6">
-        <v>103.30918253911165</v>
-      </c>
-      <c r="D15" s="6">
-        <v>103.30918253911165</v>
+      <c r="B15" s="17">
+        <v>114.82841114446765</v>
+      </c>
+      <c r="C15" s="17">
+        <v>114.82841114446765</v>
+      </c>
+      <c r="D15" s="17">
+        <v>114.82841114446765</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="6">
-        <v>1030.2258184707816</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1030.2258184707816</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1030.2258184707816</v>
+      <c r="B16" s="17">
+        <v>1091.903617399568</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1091.903617399568</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1091.903617399568</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="6">
-        <v>3470.9686700000002</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3470.9686700000002</v>
-      </c>
-      <c r="D17" s="6">
-        <v>3470.9686700000002</v>
+      <c r="B17" s="17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="17">
         <v>22.979448225111213</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="17">
         <v>22.979448225111213</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="17">
         <v>22.979448225111213</v>
       </c>
     </row>
@@ -14593,13 +14597,13 @@
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="17">
         <v>10.447492122788054</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="17">
         <v>10.447492122788054</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="17">
         <v>10.447492122788054</v>
       </c>
     </row>
@@ -14607,13 +14611,13 @@
       <c r="A20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="17">
         <v>22.547442650673521</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="17">
         <v>22.547442650673521</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="17">
         <v>22.547442650673521</v>
       </c>
     </row>
@@ -14621,13 +14625,13 @@
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="17">
         <v>5.7863936718635696</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="17">
         <v>5.7863936718635696</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="17">
         <v>5.7863936718635696</v>
       </c>
     </row>
@@ -14635,13 +14639,13 @@
       <c r="A22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="17">
         <v>45.446479280850319</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="17">
         <v>45.446479280850319</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="17">
         <v>45.446479280850319</v>
       </c>
     </row>
@@ -14649,13 +14653,13 @@
       <c r="A23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="17">
         <v>20.640772751960274</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="17">
         <v>20.640772751960274</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="17">
         <v>20.640772751960274</v>
       </c>
     </row>
@@ -14663,13 +14667,13 @@
       <c r="A24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="17">
         <v>24.457330666133409</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="17">
         <v>24.457330666133409</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="17">
         <v>24.457330666133409</v>
       </c>
     </row>
@@ -14677,13 +14681,13 @@
       <c r="A25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="17">
         <v>13.127653780972306</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="17">
         <v>13.127653780972306</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="17">
         <v>13.127653780972306</v>
       </c>
     </row>
@@ -14691,13 +14695,13 @@
       <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="17">
         <v>51.423779570700965</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="17">
         <v>51.423779570700965</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="17">
         <v>51.423779570700965</v>
       </c>
     </row>
@@ -14705,13 +14709,13 @@
       <c r="A27" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="17">
         <v>66178.293835996054</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="17">
         <v>66178.293835996054</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="17">
         <v>66178.293835996054</v>
       </c>
     </row>
@@ -14719,13 +14723,13 @@
       <c r="A28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="17">
         <v>13995.332035287312</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="17">
         <v>1475412.8962951419</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="17">
         <v>11622444.489267178</v>
       </c>
     </row>
@@ -14733,223 +14737,223 @@
       <c r="A29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="6">
-        <v>7366.3682729083293</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1495567.133131674</v>
-      </c>
-      <c r="D29" s="6">
-        <v>11780363.468313694</v>
+      <c r="B29" s="17">
+        <v>6965.3743507518066</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1490645.1702654322</v>
+      </c>
+      <c r="D29" s="17">
+        <v>11752186.998622509</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="6">
-        <v>17800.057135963369</v>
-      </c>
-      <c r="C30" s="6">
-        <v>17800.057135963369</v>
-      </c>
-      <c r="D30" s="6">
-        <v>17800.057135963369</v>
+      <c r="B30" s="17">
+        <v>19009.094867455518</v>
+      </c>
+      <c r="C30" s="17">
+        <v>19009.094867455518</v>
+      </c>
+      <c r="D30" s="17">
+        <v>19009.094867455518</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="6">
-        <v>9494.2509599539044</v>
-      </c>
-      <c r="C31" s="6">
-        <v>11297.732090417421</v>
-      </c>
-      <c r="D31" s="6">
-        <v>20574.297529313444</v>
+      <c r="B31" s="17">
+        <v>12150.843515926372</v>
+      </c>
+      <c r="C31" s="17">
+        <v>14456.984670343048</v>
+      </c>
+      <c r="D31" s="17">
+        <v>26319.082348503525</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="6">
-        <v>5093.7800173578516</v>
-      </c>
-      <c r="C32" s="6">
-        <v>33680.461746746274</v>
-      </c>
-      <c r="D32" s="6">
-        <v>180721.76939569783</v>
+      <c r="B32" s="17">
+        <v>4673.6477739410448</v>
+      </c>
+      <c r="C32" s="17">
+        <v>29242.020583184891</v>
+      </c>
+      <c r="D32" s="17">
+        <v>155614.35364639165</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="6">
-        <v>3525.3527549597461</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1467427.1573803532</v>
-      </c>
-      <c r="D33" s="6">
-        <v>11627236.936898174</v>
+      <c r="B33" s="17">
+        <v>3403.6742070303894</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1465021.4750531851</v>
+      </c>
+      <c r="D33" s="17">
+        <v>11613083.024904003</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="6">
-        <v>683.94913122363914</v>
-      </c>
-      <c r="C34" s="6">
-        <v>683.94913122363914</v>
-      </c>
-      <c r="D34" s="6">
-        <v>683.94913122363914</v>
+      <c r="B34" s="17">
+        <v>1111.8116913091083</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1111.8116913091083</v>
+      </c>
+      <c r="D34" s="17">
+        <v>1111.8116913091083</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="6">
-        <v>755.21211498339756</v>
-      </c>
-      <c r="C35" s="6">
-        <v>5043.0535583315141</v>
-      </c>
-      <c r="D35" s="6">
-        <v>27098.422516145965</v>
+      <c r="B35" s="17">
+        <v>855.07111529054373</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3364.1618361785549</v>
+      </c>
+      <c r="D35" s="17">
+        <v>16270.171148547835</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="6">
-        <v>3642.7012516456193</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1682197.5218184248</v>
-      </c>
-      <c r="D36" s="6">
-        <v>13340608.730729658</v>
+      <c r="B36" s="17">
+        <v>3633.7335552767813</v>
+      </c>
+      <c r="C36" s="17">
+        <v>1681608.6087241147</v>
+      </c>
+      <c r="D36" s="17">
+        <v>13337036.752637275</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="6">
-        <v>2924.4182116711308</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1681479.2387784503</v>
-      </c>
-      <c r="D37" s="6">
-        <v>13339890.447689682</v>
+      <c r="B37" s="17">
+        <v>2920.195999153289</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1680895.071167991</v>
+      </c>
+      <c r="D37" s="17">
+        <v>13336323.215081152</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="6">
-        <v>381.4396193807645</v>
-      </c>
-      <c r="C38" s="6">
-        <v>219322.45532849868</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1739978.7161293542</v>
+      <c r="B38" s="17">
+        <v>380.88819094685311</v>
+      </c>
+      <c r="C38" s="17">
+        <v>219357.54757640683</v>
+      </c>
+      <c r="D38" s="17">
+        <v>1740197.1487463324</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="6">
-        <v>14.110803253484669</v>
-      </c>
-      <c r="C39" s="6">
-        <v>1403514.1086310218</v>
-      </c>
-      <c r="D39" s="6">
-        <v>11252636.481581278</v>
+      <c r="B39" s="17">
+        <v>14.75670673117817</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1403514.7545344972</v>
+      </c>
+      <c r="D39" s="17">
+        <v>11252637.127484782</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="6">
-        <v>17561.899402017785</v>
-      </c>
-      <c r="C40" s="6">
-        <v>17561.899402017785</v>
-      </c>
-      <c r="D40" s="6">
-        <v>17561.899402017785</v>
+      <c r="B40" s="17">
+        <v>18696.063178681095</v>
+      </c>
+      <c r="C40" s="17">
+        <v>18696.063178681095</v>
+      </c>
+      <c r="D40" s="17">
+        <v>18696.063178681095</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="6">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="C41" s="6">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="D41" s="6">
-        <v>5429.8561042141682</v>
+      <c r="B41" s="17">
+        <v>5417.7850981752708</v>
+      </c>
+      <c r="C41" s="17">
+        <v>5417.7850981752708</v>
+      </c>
+      <c r="D41" s="17">
+        <v>5417.7850981752708</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="6">
-        <v>708.51843060302826</v>
-      </c>
-      <c r="C42" s="6">
-        <v>708.51843060302826</v>
-      </c>
-      <c r="D42" s="6">
-        <v>708.51843060302826</v>
+      <c r="B42" s="17">
+        <v>691.43589668492984</v>
+      </c>
+      <c r="C42" s="17">
+        <v>691.43589668492984</v>
+      </c>
+      <c r="D42" s="17">
+        <v>691.43589668492984</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="6">
-        <v>50.027420760144935</v>
-      </c>
-      <c r="C43" s="6">
-        <v>50.027420760144935</v>
-      </c>
-      <c r="D43" s="6">
-        <v>50.027420760144935</v>
+      <c r="B43" s="17">
+        <v>61.009049707493816</v>
+      </c>
+      <c r="C43" s="17">
+        <v>61.009049707493816</v>
+      </c>
+      <c r="D43" s="17">
+        <v>61.009049707493816</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="17">
         <v>4.8921762127944106</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="17">
         <v>116.20741576070368</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="17">
         <v>688.77958553282087</v>
       </c>
     </row>
@@ -14957,55 +14961,55 @@
       <c r="A45" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="17">
         <v>7.3148395442635188</v>
       </c>
-      <c r="C45" s="6">
-        <v>1403395.9974277646</v>
-      </c>
-      <c r="D45" s="6">
-        <v>11251945.798208248</v>
+      <c r="C45" s="17">
+        <v>1403395.9974277623</v>
+      </c>
+      <c r="D45" s="17">
+        <v>11251945.798208274</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="17">
         <v>2.4691636558894858</v>
       </c>
-      <c r="C46" s="6">
-        <v>1298434.8307651859</v>
-      </c>
-      <c r="D46" s="6">
-        <v>11213139.389898445</v>
+      <c r="C46" s="17">
+        <v>1298434.8307651835</v>
+      </c>
+      <c r="D46" s="17">
+        <v>11213139.38989847</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="17">
         <v>1.9034207229143003</v>
       </c>
-      <c r="C47" s="6">
-        <v>170453.2961029179</v>
-      </c>
-      <c r="D47" s="6">
-        <v>9994759.6370605044</v>
+      <c r="C47" s="17">
+        <v>170453.29610291834</v>
+      </c>
+      <c r="D47" s="17">
+        <v>9994759.6370605323</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="17">
         <v>0.46684363318597033</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="17">
         <v>17296.005561616515</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="17">
         <v>92925.607311322121</v>
       </c>
     </row>
@@ -15013,41 +15017,41 @@
       <c r="A49" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="6">
-        <v>8794.9356028080419</v>
-      </c>
-      <c r="C49" s="6">
-        <v>8794.9356028080419</v>
-      </c>
-      <c r="D49" s="6">
-        <v>8794.9356028080419</v>
+      <c r="B49" s="17">
+        <v>9775.5926101364985</v>
+      </c>
+      <c r="C49" s="17">
+        <v>9775.5926101364985</v>
+      </c>
+      <c r="D49" s="17">
+        <v>9775.5926101364985</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="6">
-        <v>2421.7633645441506</v>
-      </c>
-      <c r="C50" s="6">
-        <v>57524.253771586227</v>
-      </c>
-      <c r="D50" s="6">
-        <v>340954.91987214651</v>
+      <c r="B50" s="17">
+        <v>2400.0531222091745</v>
+      </c>
+      <c r="C50" s="17">
+        <v>57008.135873308413</v>
+      </c>
+      <c r="D50" s="17">
+        <v>337895.71743787127</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="17">
         <v>4.8456758883740338</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="17">
         <v>104961.10971912018</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="17">
         <v>38806.38725823642</v>
       </c>
     </row>
@@ -15055,13 +15059,13 @@
       <c r="A52" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="17">
         <v>0.5657429329751853</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="17">
         <v>1127980.949556441</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="17">
         <v>1218379.1208407846</v>
       </c>
     </row>
@@ -15069,13 +15073,13 @@
       <c r="A53" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="17">
         <v>1.4365770897283299</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="17">
         <v>153157.21117764534</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="17">
         <v>9901828.8987299241</v>
       </c>
     </row>
@@ -15083,41 +15087,41 @@
       <c r="A54" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="6">
-        <v>9494.2509599539044</v>
-      </c>
-      <c r="C54" s="6">
-        <v>11297.732090417421</v>
-      </c>
-      <c r="D54" s="6">
-        <v>20574.297529313444</v>
+      <c r="B54" s="17">
+        <v>12150.843515926372</v>
+      </c>
+      <c r="C54" s="17">
+        <v>14456.984670343048</v>
+      </c>
+      <c r="D54" s="17">
+        <v>26319.082348503525</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="6">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="C55" s="6">
-        <v>5429.8561042141682</v>
-      </c>
-      <c r="D55" s="6">
-        <v>5429.8561042141682</v>
+      <c r="B55" s="17">
+        <v>5417.7850981752708</v>
+      </c>
+      <c r="C55" s="17">
+        <v>5417.7850981752708</v>
+      </c>
+      <c r="D55" s="17">
+        <v>5417.7850981752708</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="17">
         <v>29.440595957428776</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="17">
         <v>17324.979313940759</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="17">
         <v>92954.581063646372</v>
       </c>
     </row>
@@ -15226,7 +15230,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15237,43 +15241,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="18" t="s">
         <v>185</v>
       </c>
     </row>
@@ -15317,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="15">
-        <f>K2+L2</f>
+        <f>K2+I2+J2</f>
         <v>0</v>
       </c>
     </row>
@@ -15361,7 +15365,7 @@
         <v>0.92675643267943575</v>
       </c>
       <c r="M3" s="15">
-        <f t="shared" ref="M3:M26" si="2">K3+L3</f>
+        <f t="shared" ref="M3:M26" si="2">K3+I3+J3</f>
         <v>1.0604834349615238</v>
       </c>
     </row>

--- a/Examples/pcb/pcb_model50.xlsx
+++ b/Examples/pcb/pcb_model50.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Proyectos\TaesLab\Examples\pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E737BA6C-65A0-4BCC-82FB-057B72B1BE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2D75AD-4DA4-401A-B395-243454022D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1005" yWindow="1170" windowWidth="23670" windowHeight="12525" activeTab="6" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" activeTab="5" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="2" r:id="rId1"/>
@@ -632,12 +632,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>ERC</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
     <t>recycle</t>
   </si>
   <si>
@@ -705,6 +699,12 @@
   </si>
   <si>
     <t>ELC50</t>
+  </si>
+  <si>
+    <t>B50</t>
+  </si>
+  <si>
+    <t>ERC50</t>
   </si>
 </sst>
 </file>
@@ -14229,13 +14229,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14249,12 +14249,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1">
         <v>11</v>
@@ -14263,12 +14263,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" s="1">
         <v>11</v>
@@ -14277,12 +14277,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" s="1">
         <v>11</v>
@@ -14291,12 +14291,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
@@ -14305,12 +14305,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -14319,7 +14319,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -14331,8 +14331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF80DF5-EE90-449A-8E70-BBD1318EAD45}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14346,13 +14346,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -15229,7 +15229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FB5590-4F04-43DB-9618-1983DFB96EE7}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -15248,37 +15248,37 @@
         <v>22</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>195</v>
-      </c>
       <c r="M1" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -16407,7 +16407,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Examples/pcb/pcb_model50.xlsx
+++ b/Examples/pcb/pcb_model50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2D75AD-4DA4-401A-B395-243454022D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC9052D-B929-41A5-9EC7-8D2BFA3F48AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" activeTab="5" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="15480" firstSheet="2" activeTab="4" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="2" r:id="rId1"/>
@@ -14215,8 +14215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF96C4C7-CE9C-442C-B3E9-ECEE87FF8879}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14257,7 +14257,7 @@
         <v>198</v>
       </c>
       <c r="B3" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -14271,7 +14271,7 @@
         <v>199</v>
       </c>
       <c r="B4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -14285,7 +14285,7 @@
         <v>201</v>
       </c>
       <c r="B5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -14299,7 +14299,7 @@
         <v>202</v>
       </c>
       <c r="B6" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -14331,7 +14331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF80DF5-EE90-449A-8E70-BBD1318EAD45}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/Examples/pcb/pcb_model50.xlsx
+++ b/Examples/pcb/pcb_model50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC9052D-B929-41A5-9EC7-8D2BFA3F48AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A125AC87-1355-4661-B58E-61E2854F59BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13095" windowHeight="15480" firstSheet="2" activeTab="4" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="2" activeTab="3" xr2:uid="{A9C97417-A965-48B1-94A1-435A349BC83A}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="WasteAllocation" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$1</definedName>
     <definedName name="cgam_sample" localSheetId="5">Exergy!$A$1:$B$8</definedName>
     <definedName name="tgas_fmt" localSheetId="4">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -578,9 +578,6 @@
     <t>E1+DE</t>
   </si>
   <si>
-    <t>Anode casting (E )</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -596,9 +593,6 @@
     <t>C2+(C1+JC-CH)+(BC+DC-CB)</t>
   </si>
   <si>
-    <t>Oxidation (C )</t>
-  </si>
-  <si>
     <t>OXI</t>
   </si>
   <si>
@@ -705,6 +699,12 @@
   </si>
   <si>
     <t>ERC50</t>
+  </si>
+  <si>
+    <t>Oxidation (C)</t>
+  </si>
+  <si>
+    <t>Anode casting (E)</t>
   </si>
 </sst>
 </file>
@@ -714,12 +714,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -767,48 +774,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13897,17 +13905,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7769AD97-85AB-4F2F-A6CF-EF3CDE3A1829}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="1"/>
     <col min="8" max="8" width="2.140625" style="1" customWidth="1"/>
@@ -13922,92 +13930,92 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
+      <c r="E4" s="19" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>163</v>
@@ -14015,8 +14023,8 @@
       <c r="D6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
+      <c r="E6" s="19" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -14024,7 +14032,7 @@
         <v>162</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>160</v>
@@ -14033,7 +14041,7 @@
         <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -14041,7 +14049,7 @@
         <v>158</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>156</v>
@@ -14050,7 +14058,7 @@
         <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -14058,7 +14066,7 @@
         <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>153</v>
@@ -14067,7 +14075,7 @@
         <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -14075,7 +14083,7 @@
         <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>150</v>
@@ -14084,7 +14092,7 @@
         <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -14092,7 +14100,7 @@
         <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>146</v>
@@ -14101,7 +14109,7 @@
         <v>145</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -14109,7 +14117,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>142</v>
@@ -14118,7 +14126,7 @@
         <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -14126,7 +14134,7 @@
         <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>138</v>
@@ -14135,7 +14143,7 @@
         <v>137</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -14143,7 +14151,7 @@
         <v>136</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>134</v>
@@ -14152,7 +14160,7 @@
         <v>121</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -14160,7 +14168,7 @@
         <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>80</v>
@@ -14169,7 +14177,7 @@
         <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -14177,7 +14185,7 @@
         <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>100</v>
@@ -14186,7 +14194,7 @@
         <v>124</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14194,7 +14202,7 @@
         <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>127</v>
@@ -14203,7 +14211,7 @@
         <v>126</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -14215,7 +14223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF96C4C7-CE9C-442C-B3E9-ECEE87FF8879}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
@@ -14229,13 +14237,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -14249,12 +14257,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1">
         <v>12</v>
@@ -14263,12 +14271,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
@@ -14277,12 +14285,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1">
         <v>12</v>
@@ -14291,12 +14299,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -14305,12 +14313,12 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -14319,7 +14327,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -14346,13 +14354,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -15248,37 +15256,37 @@
         <v>22</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>193</v>
-      </c>
       <c r="M1" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -16407,7 +16415,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -16483,7 +16491,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -16497,7 +16505,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="6">
         <v>0.25</v>
@@ -16511,7 +16519,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="6">
         <v>0.25</v>
@@ -16525,7 +16533,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="6">
         <v>0.25</v>
@@ -16539,7 +16547,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
